--- a/points_marquants/points_marquants_fev_25_clean.xlsx
+++ b/points_marquants/points_marquants_fev_25_clean.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,7 +733,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7:47</t>
+          <t>07:47</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">03:52 </t>
+          <t>03:52</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1947,8 +1947,12 @@
       <c r="K26" t="n">
         <v>2025</v>
       </c>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>77.71666666666667</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3.238194444444444</v>
+      </c>
       <c r="N26" t="n">
         <v>4410</v>
       </c>
@@ -2962,17 +2966,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>04:41</t>
+          <t>12:37</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>12/02/2025</t>
+          <t>13/02/2025</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>06:32</t>
+          <t>16:33</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2982,31 +2986,41 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>OCE</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
+          <t xml:space="preserve">Part Dieu </t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Esc. 4208 </t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Demarrage tardif suite incident Gerland/Oullins gare</t>
+          <t>Nez de marche cassé</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Panne</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr"/>
+          <t>Mauvaise utilisation</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>escalier</t>
+        </is>
+      </c>
       <c r="K44" t="n">
         <v>2025</v>
       </c>
       <c r="L44" t="n">
-        <v>1.85</v>
+        <v>27.93333333333333</v>
       </c>
       <c r="M44" t="n">
-        <v>0.07708333333333334</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+        <v>1.163888888888889</v>
+      </c>
+      <c r="N44" t="n">
+        <v>4208</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3016,60 +3030,60 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>12:37</t>
+          <t>11:34</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>13/02/2025</t>
+          <t>16/02/2025</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>16:33</t>
+          <t>11:44</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Part Dieu </t>
+          <t xml:space="preserve">Saxe gambetta </t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Esc. 4208 </t>
+          <t xml:space="preserve">Asc. 443 </t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Nez de marche cassé</t>
+          <t xml:space="preserve">Contact fin de course haut HS </t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Mauvaise utilisation</t>
+          <t>CR DEKRA</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>escalier</t>
+          <t>ascenseur</t>
         </is>
       </c>
       <c r="K45" t="n">
         <v>2025</v>
       </c>
       <c r="L45" t="n">
-        <v>27.93333333333333</v>
+        <v>96.16666666666667</v>
       </c>
       <c r="M45" t="n">
-        <v>1.163888888888889</v>
+        <v>4.006944444444445</v>
       </c>
       <c r="N45" t="n">
-        <v>4208</v>
+        <v>443</v>
       </c>
     </row>
     <row r="46">
@@ -3080,42 +3094,38 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>11:34</t>
+          <t>18:38</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>16/02/2025</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>11:44</t>
-        </is>
-      </c>
+          <t>25/03/2025</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Saxe gambetta </t>
+          <t xml:space="preserve">Charpennes </t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Asc. 443 </t>
+          <t>Asc. 212</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Contact fin de course haut HS </t>
+          <t xml:space="preserve">Oxydation cables de levage + poulie d'adherence HS </t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>CR DEKRA</t>
+          <t>Usure</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3126,14 +3136,10 @@
       <c r="K46" t="n">
         <v>2025</v>
       </c>
-      <c r="L46" t="n">
-        <v>96.16666666666667</v>
-      </c>
-      <c r="M46" t="n">
-        <v>4.006944444444445</v>
-      </c>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
-        <v>443</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47">
@@ -3144,116 +3150,124 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>18:38</t>
+          <t>23:10</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>25/03/2025</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+          <t>15/02/2025</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>14:40</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Charpennes </t>
+          <t>Valmy</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Asc. 212</t>
+          <t>Esc. 8301</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oxydation cables de levage + poulie d'adherence HS </t>
+          <t>Defaut peigne - contact NOK</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Usure</t>
+          <t>Panne</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>ascenseur</t>
+          <t>escalier</t>
         </is>
       </c>
       <c r="K47" t="n">
         <v>2025</v>
       </c>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>63.5</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2.645833333333333</v>
+      </c>
       <c r="N47" t="n">
-        <v>212</v>
+        <v>8301</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>12/02/2025</t>
+          <t>13/02/2025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>23:10</t>
+          <t>11:05</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>15/02/2025</t>
+          <t>13/03/2025</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>14:40</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Valmy</t>
+          <t xml:space="preserve">Part Dieu </t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Esc. 8301</t>
+          <t>Asc. 422</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Defaut peigne - contact NOK</t>
+          <t xml:space="preserve">Oxydation cables de levage + poulie d'adherence HS </t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Panne</t>
+          <t>Usure</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>escalier</t>
+          <t>ascenseur</t>
         </is>
       </c>
       <c r="K48" t="n">
         <v>2025</v>
       </c>
       <c r="L48" t="n">
-        <v>63.5</v>
+        <v>676.9166666666666</v>
       </c>
       <c r="M48" t="n">
-        <v>2.645833333333333</v>
+        <v>28.20486111111111</v>
       </c>
       <c r="N48" t="n">
-        <v>8301</v>
+        <v>422</v>
       </c>
     </row>
     <row r="49">
@@ -3264,37 +3278,37 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>11:05</t>
+          <t>15:47</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>13/03/2025</t>
+          <t>17/02/2025</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:40</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Part Dieu </t>
+          <t>Grange Blanche</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Asc. 422</t>
+          <t>Asc. 743</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oxydation cables de levage + poulie d'adherence HS </t>
+          <t>Galet de serrure HS + porte bloquée n-1</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
@@ -3311,13 +3325,13 @@
         <v>2025</v>
       </c>
       <c r="L49" t="n">
-        <v>676.9166666666666</v>
+        <v>95.88333333333334</v>
       </c>
       <c r="M49" t="n">
-        <v>28.20486111111111</v>
+        <v>3.995138888888889</v>
       </c>
       <c r="N49" t="n">
-        <v>422</v>
+        <v>743</v>
       </c>
     </row>
     <row r="50">
@@ -3328,7 +3342,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>15:47</t>
+          <t>22:05</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3338,27 +3352,27 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>15:40</t>
+          <t>21:35</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Grange Blanche</t>
+          <t>Cordeliers</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Asc. 743</t>
+          <t>Asc. 252</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Galet de serrure HS + porte bloquée n-1</t>
+          <t>VF HS</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -3375,24 +3389,24 @@
         <v>2025</v>
       </c>
       <c r="L50" t="n">
-        <v>95.88333333333334</v>
+        <v>95.5</v>
       </c>
       <c r="M50" t="n">
-        <v>3.995138888888889</v>
+        <v>3.979166666666667</v>
       </c>
       <c r="N50" t="n">
-        <v>743</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>13/02/2025</t>
+          <t>14/02/2025</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>22:05</t>
+          <t>17:59</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3402,96 +3416,96 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>21:35</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Cordeliers</t>
+          <t xml:space="preserve">Part Dieu </t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Asc. 252</t>
+          <t xml:space="preserve">Esc. 4208 </t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>VF HS</t>
+          <t xml:space="preserve">Defaut rupture de chaine + Frein bloquant </t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Usure</t>
+          <t>Panne</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>ascenseur</t>
+          <t>escalier</t>
         </is>
       </c>
       <c r="K51" t="n">
         <v>2025</v>
       </c>
       <c r="L51" t="n">
-        <v>95.5</v>
+        <v>64.01666666666667</v>
       </c>
       <c r="M51" t="n">
-        <v>3.979166666666667</v>
+        <v>2.667361111111111</v>
       </c>
       <c r="N51" t="n">
-        <v>252</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>14/02/2025</t>
+          <t>15/02/2025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>17:59</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>17/02/2025</t>
+          <t>20/02/2025</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Part Dieu </t>
+          <t xml:space="preserve">Gare de Vénissieux </t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Esc. 4208 </t>
+          <t>Esc. 7003</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Defaut rupture de chaine + Frein bloquant </t>
+          <t xml:space="preserve">Defaut plaque porte peigne + Affaissement </t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Panne</t>
+          <t>Usure</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -3503,129 +3517,129 @@
         <v>2025</v>
       </c>
       <c r="L52" t="n">
-        <v>64.01666666666667</v>
+        <v>116.5</v>
       </c>
       <c r="M52" t="n">
-        <v>2.667361111111111</v>
+        <v>4.854166666666667</v>
       </c>
       <c r="N52" t="n">
-        <v>4208</v>
+        <v>7003</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>15/02/2025</t>
+          <t>20/02/2025</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>23:20</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>20/02/2025</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
+          <t>06/04/2025</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gare de Vénissieux </t>
+          <t xml:space="preserve">Jean jaurés </t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Esc. 7003</t>
+          <t>Asc. 462</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Defaut plaque porte peigne + Affaissement </t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>Usure</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Cellule porte HS + cable NOK + guide de chape et fixation tordeus </t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>escalier</t>
+          <t>ascenseur</t>
         </is>
       </c>
       <c r="K53" t="n">
         <v>2025</v>
       </c>
-      <c r="L53" t="n">
-        <v>116.5</v>
-      </c>
-      <c r="M53" t="n">
-        <v>4.854166666666667</v>
-      </c>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
       <c r="N53" t="n">
-        <v>7003</v>
+        <v>462</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20/02/2025</t>
+          <t>21/02/2025</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>23:20</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>06/04/2025</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+          <t>23/02/2025</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>12:26</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jean jaurés </t>
+          <t xml:space="preserve">Charpennes </t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Asc. 462</t>
+          <t>Esc. 2101</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cellule porte HS + cable NOK + guide de chape et fixation tordeus </t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr"/>
+          <t>GALET DE MARCHE BAS DROIT HS</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Usure</t>
+        </is>
+      </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>ascenseur</t>
+          <t>escalier</t>
         </is>
       </c>
       <c r="K54" t="n">
         <v>2025</v>
       </c>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>50.93333333333333</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2.122222222222222</v>
+      </c>
       <c r="N54" t="n">
-        <v>462</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="55">
@@ -3636,108 +3650,100 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>9:30</t>
+          <t>17:21</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>23/02/2025</t>
+          <t>03/03/2025</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>12:26</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Charpennes </t>
+          <t xml:space="preserve">Oullins Centre </t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Esc. 2101</t>
+          <t>Asc. 513</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>GALET DE MARCHE BAS DROIT HS</t>
+          <t>PROBLEME PORTE NIVEAU RUE</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Usure</t>
+          <t>Panne</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>escalier</t>
+          <t>ascenseur</t>
         </is>
       </c>
       <c r="K55" t="n">
         <v>2025</v>
       </c>
       <c r="L55" t="n">
-        <v>50.93333333333333</v>
+        <v>238.65</v>
       </c>
       <c r="M55" t="n">
-        <v>2.122222222222222</v>
+        <v>9.94375</v>
       </c>
       <c r="N55" t="n">
-        <v>2101</v>
+        <v>513</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>21/02/2025</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>17:21</t>
-        </is>
-      </c>
+          <t>22/02/2025</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr">
         <is>
-          <t>03/03/2025</t>
+          <t>17/03/2025</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>05:50</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oullins Centre </t>
+          <t>Fourvière</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Asc. 513</t>
+          <t>Asc. 911</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>PROBLEME PORTE NIVEAU RUE</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>Panne</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Travaux de maintenance annuelle du funiculaire </t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
           <t>ascenseur</t>
@@ -3746,14 +3752,10 @@
       <c r="K56" t="n">
         <v>2025</v>
       </c>
-      <c r="L56" t="n">
-        <v>238.65</v>
-      </c>
-      <c r="M56" t="n">
-        <v>9.94375</v>
-      </c>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
       <c r="N56" t="n">
-        <v>513</v>
+        <v>911</v>
       </c>
     </row>
     <row r="57">
@@ -3762,41 +3764,45 @@
           <t>22/02/2025</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>11:55</t>
+        </is>
+      </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>17/03/2025</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>5:50</t>
-        </is>
-      </c>
+          <t>31/03/2025</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Fourvière</t>
+          <t xml:space="preserve">Gare de Vénissieux </t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Asc. 911</t>
+          <t>Esc. 7001</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Travaux de maintenance annuelle du funiculaire </t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
+          <t>DEFAUT MOTEUR + HUILE</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Panne</t>
+        </is>
+      </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>ascenseur</t>
+          <t>escalier</t>
         </is>
       </c>
       <c r="K57" t="n">
@@ -3805,26 +3811,30 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="n">
-        <v>911</v>
+        <v>7001</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>22/02/2025</t>
+          <t>23/02/2025</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>11:55</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>31/03/2025</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+          <t>05/03/2025</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>14:50</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
           <t>D</t>
@@ -3832,22 +3842,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gare de Vénissieux </t>
+          <t>Guillotière</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Esc. 7001</t>
+          <t>Esc 7901</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>DEFAUT MOTEUR + HUILE</t>
+          <t xml:space="preserve">Chaine anti derive detendu à remplacer </t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Panne</t>
+          <t>Usure</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3858,33 +3868,33 @@
       <c r="K58" t="n">
         <v>2025</v>
       </c>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>242.8333333333333</v>
+      </c>
+      <c r="M58" t="n">
+        <v>10.11805555555556</v>
+      </c>
       <c r="N58" t="n">
-        <v>7001</v>
+        <v>7901</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>23/02/2025</t>
+          <t>25/02/2025</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>05/03/2025</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>14:50</t>
-        </is>
-      </c>
+          <t>15/04/2025</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
           <t>D</t>
@@ -3892,22 +3902,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Guillotière</t>
+          <t>Laennec</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Esc 7901</t>
+          <t>Esc 7301</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chaine anti derive detendu à remplacer </t>
+          <t>Jeux entre maches et plinthes 9mm</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Usure</t>
+          <t>CR DEKRA</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3918,33 +3928,33 @@
       <c r="K59" t="n">
         <v>2025</v>
       </c>
-      <c r="L59" t="n">
-        <v>242.8333333333333</v>
-      </c>
-      <c r="M59" t="n">
-        <v>10.11805555555556</v>
-      </c>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
       <c r="N59" t="n">
-        <v>7901</v>
+        <v>7301</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>25/02/2025</t>
+          <t>26/02/2025</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>15/04/2025</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
+          <t>27/02/2025</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>16:00</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>D</t>
@@ -3952,22 +3962,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Laennec</t>
+          <t xml:space="preserve">Gare de Vénissieux </t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Esc 7301</t>
+          <t>Esc. 7003</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Jeux entre maches et plinthes 9mm</t>
+          <t>Contact de peigne NOK</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>CR DEKRA</t>
+          <t>Panne</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3978,10 +3988,14 @@
       <c r="K60" t="n">
         <v>2025</v>
       </c>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>32</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1.333333333333333</v>
+      </c>
       <c r="N60" t="n">
-        <v>7301</v>
+        <v>7003</v>
       </c>
     </row>
     <row r="61">
@@ -3992,17 +4006,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:15</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>27/02/2025</t>
+          <t>28/02/2025</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:56</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4012,17 +4026,17 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gare de Vénissieux </t>
+          <t>Garibaldi</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Esc. 7003</t>
+          <t>Esc. 7704</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Contact de peigne NOK</t>
+          <t>AFFAISSEMENT DE MARCHE</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -4039,13 +4053,13 @@
         <v>2025</v>
       </c>
       <c r="L61" t="n">
-        <v>32</v>
+        <v>54.68333333333333</v>
       </c>
       <c r="M61" t="n">
-        <v>1.333333333333333</v>
+        <v>2.278472222222222</v>
       </c>
       <c r="N61" t="n">
-        <v>7003</v>
+        <v>7704</v>
       </c>
     </row>
     <row r="62">
@@ -4056,37 +4070,37 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>09:15</t>
+          <t>18:45</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>28/02/2025</t>
+          <t>01/03/2025</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>15:56</t>
+          <t>18:40</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Garibaldi</t>
+          <t>Manufacture</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Esc. 7704</t>
+          <t>Esc. 9701</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>AFFAISSEMENT DE MARCHE</t>
+          <t>Ne demarre pas à distance pb DP</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -4103,114 +4117,14 @@
         <v>2025</v>
       </c>
       <c r="L62" t="n">
-        <v>54.68333333333333</v>
+        <v>71.91666666666667</v>
       </c>
       <c r="M62" t="n">
-        <v>2.278472222222222</v>
+        <v>2.996527777777778</v>
       </c>
       <c r="N62" t="n">
-        <v>7704</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>26/02/2025</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>18:45</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>01/03/2025</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>18:40</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>T4</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Manufacture</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Esc. 9701</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Ne demarre pas à distance pb DP</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>Panne</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>escalier</t>
-        </is>
-      </c>
-      <c r="K63" t="n">
-        <v>2025</v>
-      </c>
-      <c r="L63" t="n">
-        <v>71.91666666666667</v>
-      </c>
-      <c r="M63" t="n">
-        <v>2.996527777777778</v>
-      </c>
-      <c r="N63" t="n">
         <v>9701</v>
       </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr"/>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr"/>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>                                                                    </t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
